--- a/Output/Quant_summary.xlsx
+++ b/Output/Quant_summary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Quantitative-Repro\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F771CA0-5E06-4101-8A12-DF3516EBB835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F370BE4-87BC-4C1C-8846-D0D70CA37C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WQ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="47">
   <si>
     <t>Water quality</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t xml:space="preserve">data:  WQ_raw$Salinity and WQ_raw$Site </t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Letters</t>
   </si>
 </sst>
 </file>
@@ -267,9 +285,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -296,6 +311,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,16 +514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73299</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -528,8 +546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14163675" y="1597299"/>
-          <a:ext cx="4857750" cy="3136626"/>
+          <a:off x="14510385" y="431439"/>
+          <a:ext cx="4857750" cy="3014706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -541,15 +559,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152547</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127389</xdr:rowOff>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,8 +590,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133997" y="1581150"/>
-          <a:ext cx="5124303" cy="3308739"/>
+          <a:off x="4411980" y="430531"/>
+          <a:ext cx="4812030" cy="2985460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,22 +920,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520D136-D05F-41E6-8E0D-AC4F2D0DA4EE}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="15"/>
+    <col min="16" max="16" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,7 +943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -951,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -970,32 +988,32 @@
       <c r="R5" s="2">
         <v>88.925870000000003</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>1.12959E-17</v>
       </c>
       <c r="T5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="Q8" s="5" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="Q8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1021,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1038,7 @@
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1037,8 +1055,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -1056,7 +1074,7 @@
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="R11" s="2">
@@ -1075,8 +1093,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -1094,7 +1112,7 @@
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="R12" s="2">
@@ -1113,8 +1131,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -1132,7 +1150,7 @@
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="R13" s="2">
@@ -1151,8 +1169,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -1170,7 +1188,7 @@
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="2">
@@ -1189,8 +1207,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -1208,51 +1226,51 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="13">
         <v>6.4999999999999995E-11</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="13">
         <v>2.4000000000000001E-11</v>
       </c>
       <c r="T15" s="2">
         <v>2.7E-4</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="13">
         <v>8.8000000000000006E-11</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="13">
         <v>6.7000000000000001E-11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1270,7 +1288,10 @@
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="G20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="4" t="s">
@@ -1288,9 +1309,12 @@
       <c r="V20" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="W20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1308,7 +1332,10 @@
       <c r="F21" s="2">
         <v>0.876</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -1326,9 +1353,12 @@
       <c r="V21" s="2">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="W21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1346,7 +1376,10 @@
       <c r="F22" s="2">
         <v>0.73899999999999999</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -1364,9 +1397,12 @@
       <c r="V22" s="2">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="W22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1384,7 +1420,10 @@
       <c r="F23" s="2">
         <v>0.72899999999999998</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -1402,9 +1441,12 @@
       <c r="V23" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="W23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1422,7 +1464,10 @@
       <c r="F24" s="2">
         <v>0.73399999999999999</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -1440,9 +1485,12 @@
       <c r="V24" s="2">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="W24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1460,7 +1508,10 @@
       <c r="F25" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="G25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -1478,9 +1529,12 @@
       <c r="V25" s="2">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="W25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1498,7 +1552,10 @@
       <c r="F26" s="2">
         <v>0.70299999999999996</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="G26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -1516,30 +1573,33 @@
       <c r="V26" s="2">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="W26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -1577,463 +1637,463 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="11">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10">
         <v>12.32</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>0.77300000000000002</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>0.34599999999999997</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S30" s="11">
-        <v>5</v>
-      </c>
-      <c r="T30" s="11">
+      <c r="S30" s="10">
+        <v>5</v>
+      </c>
+      <c r="T30" s="10">
         <v>33.384</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="10">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11">
-        <v>5</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
         <v>12.26</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="11">
-        <v>5</v>
-      </c>
-      <c r="T31" s="11">
+      <c r="S31" s="10">
+        <v>5</v>
+      </c>
+      <c r="T31" s="10">
         <v>23.37</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="10">
         <v>6.1050000000000004</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <v>2.73</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="11">
-        <v>5</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="10">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10">
         <v>15.38</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>0.58899999999999997</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0.26300000000000001</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S32" s="11">
-        <v>5</v>
-      </c>
-      <c r="T32" s="11">
+      <c r="S32" s="10">
+        <v>5</v>
+      </c>
+      <c r="T32" s="10">
         <v>9.1679999999999993</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="10">
         <v>5.7610000000000001</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="10">
         <v>2.577</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10">
         <v>20.16</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>0.434</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>0.19400000000000001</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S33" s="11">
-        <v>5</v>
-      </c>
-      <c r="T33" s="11">
+      <c r="S33" s="10">
+        <v>5</v>
+      </c>
+      <c r="T33" s="10">
         <v>22.866</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="10">
         <v>3.8919999999999999</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="10">
         <v>1.74</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" s="10">
+        <v>5</v>
+      </c>
+      <c r="D34" s="10">
         <v>24.28</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>0.34899999999999998</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>0.156</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S34" s="11">
-        <v>5</v>
-      </c>
-      <c r="T34" s="11">
+      <c r="S34" s="10">
+        <v>5</v>
+      </c>
+      <c r="T34" s="10">
         <v>16.760000000000002</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="10">
         <v>2.242</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="10">
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11">
-        <v>5</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="C35" s="10">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10">
         <v>28.4</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>0.14799999999999999</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S35" s="11">
-        <v>5</v>
-      </c>
-      <c r="T35" s="11">
+      <c r="S35" s="10">
+        <v>5</v>
+      </c>
+      <c r="T35" s="10">
         <v>18.866</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="10">
         <v>3.891</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="10">
         <v>1.74</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="11">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="10">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10">
         <v>29.24</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S36" s="11">
-        <v>5</v>
-      </c>
-      <c r="T36" s="11">
+      <c r="S36" s="10">
+        <v>5</v>
+      </c>
+      <c r="T36" s="10">
         <v>15.08</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="10">
         <v>6.3220000000000001</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="10">
         <v>2.827</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="11">
-        <v>5</v>
-      </c>
-      <c r="D37" s="11">
+      <c r="C37" s="10">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
         <v>30.04</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0.04</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="11">
-        <v>5</v>
-      </c>
-      <c r="T37" s="11">
+      <c r="S37" s="10">
+        <v>5</v>
+      </c>
+      <c r="T37" s="10">
         <v>22.16</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="10">
         <v>1.6240000000000001</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="10">
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="11">
-        <v>5</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C38" s="10">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
         <v>27.82</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>0.185</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S38" s="11">
-        <v>5</v>
-      </c>
-      <c r="T38" s="11">
+      <c r="S38" s="10">
+        <v>5</v>
+      </c>
+      <c r="T38" s="10">
         <v>26.474</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="10">
         <v>2.6720000000000002</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="10">
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="11">
-        <v>5</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
         <v>28.94</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="11">
-        <v>5</v>
-      </c>
-      <c r="T39" s="11">
+      <c r="S39" s="10">
+        <v>5</v>
+      </c>
+      <c r="T39" s="10">
         <v>28.388000000000002</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="10">
         <v>0.88600000000000001</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="10">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="11">
-        <v>5</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
         <v>23.14</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>0.498</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>0.223</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S40" s="11">
-        <v>5</v>
-      </c>
-      <c r="T40" s="11">
+      <c r="S40" s="10">
+        <v>5</v>
+      </c>
+      <c r="T40" s="10">
         <v>15.48</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="10">
         <v>8.2040000000000006</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V40" s="10">
         <v>3.669</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>2</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>16.7</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>0.42399999999999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0.3</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="10">
         <v>2</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="10">
         <v>7.375</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="10">
         <v>10.09</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="10">
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2131,7 @@
         <v>2.528</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2169,7 @@
         <v>1.8109999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2207,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2245,7 @@
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2283,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2261,7 +2321,7 @@
         <v>5.4770000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2359,7 @@
         <v>3.9460000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2397,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2375,7 +2435,7 @@
         <v>2.7029999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -2413,7 +2473,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2511,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -2489,463 +2549,463 @@
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="11">
-        <v>3</v>
-      </c>
-      <c r="D54" s="11">
+      <c r="C54" s="10">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>0.153</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S54" s="11">
-        <v>3</v>
-      </c>
-      <c r="T54" s="11">
+      <c r="S54" s="10">
+        <v>3</v>
+      </c>
+      <c r="T54" s="10">
         <v>22.902999999999999</v>
       </c>
-      <c r="U54" s="11">
+      <c r="U54" s="10">
         <v>4.9820000000000002</v>
       </c>
-      <c r="V54" s="11">
+      <c r="V54" s="10">
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="11">
-        <v>3</v>
-      </c>
-      <c r="D55" s="11">
+      <c r="C55" s="10">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10">
         <v>22.533000000000001</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>0.47299999999999998</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>0.27300000000000002</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="11">
-        <v>3</v>
-      </c>
-      <c r="T55" s="11">
+      <c r="S55" s="10">
+        <v>3</v>
+      </c>
+      <c r="T55" s="10">
         <v>25.472999999999999</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U55" s="10">
         <v>1.6930000000000001</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V55" s="10">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="11">
-        <v>3</v>
-      </c>
-      <c r="D56" s="11">
+      <c r="C56" s="10">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10">
         <v>22.966999999999999</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>0.153</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S56" s="11">
-        <v>3</v>
-      </c>
-      <c r="T56" s="11">
+      <c r="S56" s="10">
+        <v>3</v>
+      </c>
+      <c r="T56" s="10">
         <v>27.562999999999999</v>
       </c>
-      <c r="U56" s="11">
+      <c r="U56" s="10">
         <v>3.1120000000000001</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V56" s="10">
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="11">
-        <v>3</v>
-      </c>
-      <c r="D57" s="11">
+      <c r="C57" s="10">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10">
         <v>26.433</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>0.252</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>0.14499999999999999</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S57" s="11">
-        <v>3</v>
-      </c>
-      <c r="T57" s="11">
+      <c r="S57" s="10">
+        <v>3</v>
+      </c>
+      <c r="T57" s="10">
         <v>32.567</v>
       </c>
-      <c r="U57" s="11">
+      <c r="U57" s="10">
         <v>1.718</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V57" s="10">
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="11">
-        <v>3</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C58" s="10">
+        <v>3</v>
+      </c>
+      <c r="D58" s="10">
         <v>26.533000000000001</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>0.153</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S58" s="11">
-        <v>3</v>
-      </c>
-      <c r="T58" s="11">
+      <c r="S58" s="10">
+        <v>3</v>
+      </c>
+      <c r="T58" s="10">
         <v>18.753</v>
       </c>
-      <c r="U58" s="11">
+      <c r="U58" s="10">
         <v>4.0629999999999997</v>
       </c>
-      <c r="V58" s="11">
+      <c r="V58" s="10">
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="11">
-        <v>3</v>
-      </c>
-      <c r="D59" s="11">
+      <c r="C59" s="10">
+        <v>3</v>
+      </c>
+      <c r="D59" s="10">
         <v>30.367000000000001</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>0.153</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S59" s="11">
-        <v>3</v>
-      </c>
-      <c r="T59" s="11">
+      <c r="S59" s="10">
+        <v>3</v>
+      </c>
+      <c r="T59" s="10">
         <v>7.6470000000000002</v>
       </c>
-      <c r="U59" s="11">
+      <c r="U59" s="10">
         <v>1.9370000000000001</v>
       </c>
-      <c r="V59" s="11">
+      <c r="V59" s="10">
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="11">
-        <v>3</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="C60" s="10">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10">
         <v>31.8</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>0.1</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S60" s="11">
-        <v>3</v>
-      </c>
-      <c r="T60" s="11">
+      <c r="S60" s="10">
+        <v>3</v>
+      </c>
+      <c r="T60" s="10">
         <v>13.872999999999999</v>
       </c>
-      <c r="U60" s="11">
+      <c r="U60" s="10">
         <v>5.0039999999999996</v>
       </c>
-      <c r="V60" s="11">
+      <c r="V60" s="10">
         <v>2.8889999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="11">
-        <v>3</v>
-      </c>
-      <c r="D61" s="11">
+      <c r="C61" s="10">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10">
         <v>32.232999999999997</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>1.012</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>0.58399999999999996</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S61" s="11">
-        <v>3</v>
-      </c>
-      <c r="T61" s="11">
+      <c r="S61" s="10">
+        <v>3</v>
+      </c>
+      <c r="T61" s="10">
         <v>22.216999999999999</v>
       </c>
-      <c r="U61" s="11">
+      <c r="U61" s="10">
         <v>5.5359999999999996</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V61" s="10">
         <v>3.1960000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="11">
-        <v>3</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C62" s="10">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10">
         <v>30.332999999999998</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>0.49299999999999999</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S62" s="11">
-        <v>3</v>
-      </c>
-      <c r="T62" s="11">
+      <c r="S62" s="10">
+        <v>3</v>
+      </c>
+      <c r="T62" s="10">
         <v>11.62</v>
       </c>
-      <c r="U62" s="11">
+      <c r="U62" s="10">
         <v>6.617</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V62" s="10">
         <v>3.82</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="11">
-        <v>3</v>
-      </c>
-      <c r="D63" s="11">
+      <c r="C63" s="10">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10">
         <v>30.033000000000001</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>0.29599999999999999</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S63" s="11">
-        <v>3</v>
-      </c>
-      <c r="T63" s="11">
+      <c r="S63" s="10">
+        <v>3</v>
+      </c>
+      <c r="T63" s="10">
         <v>27.786999999999999</v>
       </c>
-      <c r="U63" s="11">
+      <c r="U63" s="10">
         <v>1.534</v>
       </c>
-      <c r="V63" s="11">
+      <c r="V63" s="10">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="11">
-        <v>3</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C64" s="10">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10">
         <v>27.5</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>0.2</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>0.115</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S64" s="11">
-        <v>3</v>
-      </c>
-      <c r="T64" s="11">
+      <c r="S64" s="10">
+        <v>3</v>
+      </c>
+      <c r="T64" s="10">
         <v>32.912999999999997</v>
       </c>
-      <c r="U64" s="11">
+      <c r="U64" s="10">
         <v>0.245</v>
       </c>
-      <c r="V64" s="11">
+      <c r="V64" s="10">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="11">
-        <v>3</v>
-      </c>
-      <c r="D65" s="11">
+      <c r="C65" s="10">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10">
         <v>22.067</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>0.16700000000000001</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S65" s="11">
-        <v>3</v>
-      </c>
-      <c r="T65" s="11">
+      <c r="S65" s="10">
+        <v>3</v>
+      </c>
+      <c r="T65" s="10">
         <v>34.58</v>
       </c>
-      <c r="U65" s="11">
+      <c r="U65" s="10">
         <v>0.745</v>
       </c>
-      <c r="V65" s="11">
+      <c r="V65" s="10">
         <v>0.43</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +3043,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3081,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -3059,7 +3119,7 @@
         <v>1.8160000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3157,7 @@
         <v>1.4330000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3195,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
@@ -3173,7 +3233,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -3211,7 +3271,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3249,7 +3309,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3347,7 @@
         <v>2.8679999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3385,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +3423,7 @@
         <v>3.2810000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
@@ -3401,463 +3461,463 @@
         <v>2.835</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="11">
-        <v>3</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="10">
+        <v>3</v>
+      </c>
+      <c r="D78" s="10">
         <v>16.233000000000001</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="Q78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R78" s="11" t="s">
+      <c r="R78" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S78" s="11">
-        <v>3</v>
-      </c>
-      <c r="T78" s="11">
+      <c r="S78" s="10">
+        <v>3</v>
+      </c>
+      <c r="T78" s="10">
         <v>15.766999999999999</v>
       </c>
-      <c r="U78" s="11">
+      <c r="U78" s="10">
         <v>0.71499999999999997</v>
       </c>
-      <c r="V78" s="11">
+      <c r="V78" s="10">
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="11">
-        <v>3</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="C79" s="10">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10">
         <v>20.766999999999999</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>0.115</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q79" s="11" t="s">
+      <c r="Q79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R79" s="11" t="s">
+      <c r="R79" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S79" s="11">
-        <v>3</v>
-      </c>
-      <c r="T79" s="11">
+      <c r="S79" s="10">
+        <v>3</v>
+      </c>
+      <c r="T79" s="10">
         <v>20.803000000000001</v>
       </c>
-      <c r="U79" s="11">
+      <c r="U79" s="10">
         <v>1.698</v>
       </c>
-      <c r="V79" s="11">
+      <c r="V79" s="10">
         <v>0.98</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="11">
-        <v>3</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="C80" s="10">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10">
         <v>21.233000000000001</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q80" s="11" t="s">
+      <c r="Q80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S80" s="11">
-        <v>3</v>
-      </c>
-      <c r="T80" s="11">
+      <c r="S80" s="10">
+        <v>3</v>
+      </c>
+      <c r="T80" s="10">
         <v>27.14</v>
       </c>
-      <c r="U80" s="11">
+      <c r="U80" s="10">
         <v>0.65</v>
       </c>
-      <c r="V80" s="11">
+      <c r="V80" s="10">
         <v>0.375</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="11">
-        <v>3</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="C81" s="10">
+        <v>3</v>
+      </c>
+      <c r="D81" s="10">
         <v>25</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>0.1</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S81" s="11">
-        <v>3</v>
-      </c>
-      <c r="T81" s="11">
+      <c r="S81" s="10">
+        <v>3</v>
+      </c>
+      <c r="T81" s="10">
         <v>27.687000000000001</v>
       </c>
-      <c r="U81" s="11">
+      <c r="U81" s="10">
         <v>0.89</v>
       </c>
-      <c r="V81" s="11">
+      <c r="V81" s="10">
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="11">
-        <v>3</v>
-      </c>
-      <c r="D82" s="11">
+      <c r="C82" s="10">
+        <v>3</v>
+      </c>
+      <c r="D82" s="10">
         <v>24</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>0.1</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S82" s="11">
-        <v>3</v>
-      </c>
-      <c r="T82" s="11">
+      <c r="S82" s="10">
+        <v>3</v>
+      </c>
+      <c r="T82" s="10">
         <v>28.603000000000002</v>
       </c>
-      <c r="U82" s="11">
+      <c r="U82" s="10">
         <v>0.91</v>
       </c>
-      <c r="V82" s="11">
+      <c r="V82" s="10">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="11">
-        <v>3</v>
-      </c>
-      <c r="D83" s="11">
+      <c r="C83" s="10">
+        <v>3</v>
+      </c>
+      <c r="D83" s="10">
         <v>29.167000000000002</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>0.23300000000000001</v>
       </c>
-      <c r="Q83" s="11" t="s">
+      <c r="Q83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R83" s="11" t="s">
+      <c r="R83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S83" s="11">
-        <v>3</v>
-      </c>
-      <c r="T83" s="11">
+      <c r="S83" s="10">
+        <v>3</v>
+      </c>
+      <c r="T83" s="10">
         <v>1.413</v>
       </c>
-      <c r="U83" s="11">
+      <c r="U83" s="10">
         <v>0.95399999999999996</v>
       </c>
-      <c r="V83" s="11">
+      <c r="V83" s="10">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="11">
-        <v>3</v>
-      </c>
-      <c r="D84" s="11">
+      <c r="C84" s="10">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10">
         <v>30.033000000000001</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>0.35099999999999998</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="11">
-        <v>3</v>
-      </c>
-      <c r="T84" s="11">
+      <c r="S84" s="10">
+        <v>3</v>
+      </c>
+      <c r="T84" s="10">
         <v>11.18</v>
       </c>
-      <c r="U84" s="11">
+      <c r="U84" s="10">
         <v>0.45800000000000002</v>
       </c>
-      <c r="V84" s="11">
+      <c r="V84" s="10">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="11">
-        <v>3</v>
-      </c>
-      <c r="D85" s="11">
+      <c r="C85" s="10">
+        <v>3</v>
+      </c>
+      <c r="D85" s="10">
         <v>30.632999999999999</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>0.26700000000000002</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S85" s="11">
-        <v>3</v>
-      </c>
-      <c r="T85" s="11">
+      <c r="S85" s="10">
+        <v>3</v>
+      </c>
+      <c r="T85" s="10">
         <v>6.3070000000000004</v>
       </c>
-      <c r="U85" s="11">
+      <c r="U85" s="10">
         <v>1.76</v>
       </c>
-      <c r="V85" s="11">
+      <c r="V85" s="10">
         <v>1.016</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="11">
-        <v>3</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="C86" s="10">
+        <v>3</v>
+      </c>
+      <c r="D86" s="10">
         <v>29.632999999999999</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>0.153</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Q86" s="11" t="s">
+      <c r="Q86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R86" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S86" s="11">
-        <v>3</v>
-      </c>
-      <c r="T86" s="11">
+      <c r="S86" s="10">
+        <v>3</v>
+      </c>
+      <c r="T86" s="10">
         <v>5.3170000000000002</v>
       </c>
-      <c r="U86" s="11">
+      <c r="U86" s="10">
         <v>0.89600000000000002</v>
       </c>
-      <c r="V86" s="11">
+      <c r="V86" s="10">
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="11">
-        <v>3</v>
-      </c>
-      <c r="D87" s="11">
+      <c r="C87" s="10">
+        <v>3</v>
+      </c>
+      <c r="D87" s="10">
         <v>28.367000000000001</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="10">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R87" s="11" t="s">
+      <c r="R87" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S87" s="11">
-        <v>3</v>
-      </c>
-      <c r="T87" s="11">
+      <c r="S87" s="10">
+        <v>3</v>
+      </c>
+      <c r="T87" s="10">
         <v>14.807</v>
       </c>
-      <c r="U87" s="11">
+      <c r="U87" s="10">
         <v>1.65</v>
       </c>
-      <c r="V87" s="11">
+      <c r="V87" s="10">
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="11">
-        <v>3</v>
-      </c>
-      <c r="D88" s="11">
+      <c r="C88" s="10">
+        <v>3</v>
+      </c>
+      <c r="D88" s="10">
         <v>25.9</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="10">
         <v>0.1</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S88" s="11">
-        <v>3</v>
-      </c>
-      <c r="T88" s="11">
+      <c r="S88" s="10">
+        <v>3</v>
+      </c>
+      <c r="T88" s="10">
         <v>22.773</v>
       </c>
-      <c r="U88" s="11">
+      <c r="U88" s="10">
         <v>1.494</v>
       </c>
-      <c r="V88" s="11">
+      <c r="V88" s="10">
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="11">
-        <v>3</v>
-      </c>
-      <c r="D89" s="11">
+      <c r="C89" s="10">
+        <v>3</v>
+      </c>
+      <c r="D89" s="10">
         <v>18.567</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="10">
         <v>1.1240000000000001</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>0.64900000000000002</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R89" s="11" t="s">
+      <c r="R89" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S89" s="11">
-        <v>3</v>
-      </c>
-      <c r="T89" s="11">
+      <c r="S89" s="10">
+        <v>3</v>
+      </c>
+      <c r="T89" s="10">
         <v>27.312999999999999</v>
       </c>
-      <c r="U89" s="11">
+      <c r="U89" s="10">
         <v>1.6140000000000001</v>
       </c>
-      <c r="V89" s="11">
+      <c r="V89" s="10">
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +3955,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>15</v>
       </c>
@@ -3933,7 +3993,7 @@
         <v>1.502</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
@@ -3971,7 +4031,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>15</v>
       </c>
@@ -4009,7 +4069,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -4047,7 +4107,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>15</v>
       </c>
@@ -4085,7 +4145,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4183,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4221,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
@@ -4199,7 +4259,7 @@
         <v>2.2989999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
@@ -4237,7 +4297,7 @@
         <v>2.0110000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4335,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>15</v>
       </c>

--- a/Output/Quant_summary.xlsx
+++ b/Output/Quant_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Quantitative-Repro\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F370BE4-87BC-4C1C-8846-D0D70CA37C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636D766D-A549-4437-9956-7936BEC750D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
   </bookViews>
   <sheets>
     <sheet name="WQ" sheetId="1" r:id="rId1"/>
+    <sheet name="Dermo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="55">
   <si>
     <t>Water quality</t>
   </si>
@@ -177,6 +178,30 @@
   </si>
   <si>
     <t>Letters</t>
+  </si>
+  <si>
+    <t>Dermo</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>data:  Dermo$PresenceBoth, Dermo$Site</t>
+  </si>
+  <si>
+    <t>PresenceBoth</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Intensity</t>
   </si>
 </sst>
 </file>
@@ -603,6 +628,278 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3AD64F-4B86-40D1-ADF5-32F122BF65EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3398520" y="548640"/>
+          <a:ext cx="304800" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB91EC17-7775-4E90-B5F2-ECDCD0B35B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13167360" y="548640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275797</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358141</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4337CE7D-D7A1-E45D-2BBB-26A8A1298207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4443937" y="182880"/>
+          <a:ext cx="4959144" cy="2961255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>432006</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B18CE49-76E3-2DEE-4611-A2DF70F3990E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="4827759"/>
+          <a:ext cx="5125926" cy="3060846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>351752</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D4E5B9-C7D1-3F3C-CA03-E92B2E621A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14639364" y="339186"/>
+          <a:ext cx="5120976" cy="3057890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215154</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>180863</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>89760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127ED522-5B2F-4DDD-6645-7CFD4B2E39D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14746942" y="4179777"/>
+          <a:ext cx="6061709" cy="3619630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -922,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520D136-D05F-41E6-8E0D-AC4F2D0DA4EE}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4381,4 +4678,3472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1A740-B833-4284-BD7A-24FD71732E32}">
+  <dimension ref="A1:W101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>213.29759999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.049576E-44</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>256.23110000000003</v>
+      </c>
+      <c r="S5" s="13">
+        <v>2.5290349999999998E-53</v>
+      </c>
+      <c r="T5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="Q8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.19777</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.5E-8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4.4999999999999998E-9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.7000000000000001E-11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4.1000000000000004E-15</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.707E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.6E-10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="T14" s="2">
+        <v>8.9999999999999999E-11</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.9999999999999998E-16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="13">
+        <v>1</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="2">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2">
+        <v>295</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="2">
+        <v>295</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="V21" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2">
+        <v>239</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="2">
+        <v>239</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.627</v>
+      </c>
+      <c r="V22" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2">
+        <v>180</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="2">
+        <v>180</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="V23" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2">
+        <v>180</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="2">
+        <v>180</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.307</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="V24" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="2">
+        <v>69</v>
+      </c>
+      <c r="T25" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U25" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2">
+        <v>300</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="2">
+        <v>300</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="V26" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="10">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.374</v>
+      </c>
+      <c r="F30" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="10">
+        <v>25</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="U30" s="10">
+        <v>1.089</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31" s="10">
+        <v>25</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="U31" s="10">
+        <v>1.161</v>
+      </c>
+      <c r="V31" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="10">
+        <v>25</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="U32" s="10">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10">
+        <v>25</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="10">
+        <v>25</v>
+      </c>
+      <c r="T33" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="U33" s="10">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="10">
+        <v>25</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="10">
+        <v>25</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="U34" s="10">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10">
+        <v>25</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="10">
+        <v>25</v>
+      </c>
+      <c r="T35" s="10">
+        <v>1.44</v>
+      </c>
+      <c r="U35" s="10">
+        <v>1.776</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="10">
+        <v>25</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="10">
+        <v>25</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="U36" s="10">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10">
+        <v>25</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F37" s="10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="10">
+        <v>25</v>
+      </c>
+      <c r="T37" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="U37" s="10">
+        <v>1.482</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10">
+        <v>25</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.374</v>
+      </c>
+      <c r="F38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="10">
+        <v>25</v>
+      </c>
+      <c r="T38" s="10">
+        <v>1.96</v>
+      </c>
+      <c r="U38" s="10">
+        <v>1.579</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="10">
+        <v>25</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="10">
+        <v>25</v>
+      </c>
+      <c r="T39" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="U39" s="10">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="10">
+        <v>20</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="F40" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="10">
+        <v>20</v>
+      </c>
+      <c r="T40" s="10">
+        <v>1.087</v>
+      </c>
+      <c r="U40" s="10">
+        <v>1.244</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="10">
+        <v>25</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.436</v>
+      </c>
+      <c r="F41" s="10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="10">
+        <v>25</v>
+      </c>
+      <c r="T41" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="U41" s="10">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="2">
+        <v>20</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="2">
+        <v>20</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="2">
+        <v>20</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" s="2">
+        <v>20</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="2">
+        <v>20</v>
+      </c>
+      <c r="T46" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="V46" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="V47" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="2">
+        <v>20</v>
+      </c>
+      <c r="T48" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="V48" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2">
+        <v>20</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" s="2">
+        <v>19</v>
+      </c>
+      <c r="T51" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="U51" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="2">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="10">
+        <v>15</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F54" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="10">
+        <v>15</v>
+      </c>
+      <c r="T54" s="10">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="U54" s="10">
+        <v>1.113</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="10">
+        <v>15</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="10">
+        <v>15</v>
+      </c>
+      <c r="T55" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="10">
+        <v>15</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S56" s="10">
+        <v>15</v>
+      </c>
+      <c r="T56" s="10">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10">
+        <v>15</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S57" s="10">
+        <v>15</v>
+      </c>
+      <c r="T57" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="10">
+        <v>15</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0.107</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S58" s="10">
+        <v>15</v>
+      </c>
+      <c r="T58" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="10">
+        <v>15</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="10">
+        <v>15</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="10">
+        <v>15</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S60" s="10">
+        <v>15</v>
+      </c>
+      <c r="T60" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="U60" s="10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="V60" s="10">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="10">
+        <v>15</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="10">
+        <v>15</v>
+      </c>
+      <c r="T61" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="U61" s="10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="V61" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="10">
+        <v>15</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" s="10">
+        <v>15</v>
+      </c>
+      <c r="T62" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="V62" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="10">
+        <v>15</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63" s="10">
+        <v>15</v>
+      </c>
+      <c r="T63" s="10">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="U63" s="10">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="V63" s="10">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="10">
+        <v>15</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" s="10">
+        <v>15</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="U64" s="10">
+        <v>1.052</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="10">
+        <v>15</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65" s="10">
+        <v>15</v>
+      </c>
+      <c r="T65" s="10">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U65" s="10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="V65" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="2">
+        <v>15</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="2">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" s="2">
+        <v>15</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S68" s="2">
+        <v>15</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="2">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S69" s="2">
+        <v>15</v>
+      </c>
+      <c r="T69" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1.351</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S70" s="2">
+        <v>15</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="2">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="2">
+        <v>15</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="V71" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="2">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="2">
+        <v>15</v>
+      </c>
+      <c r="T72" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="2">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F73" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" s="2">
+        <v>15</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V73" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="2">
+        <v>15</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S74" s="2">
+        <v>15</v>
+      </c>
+      <c r="T74" s="2">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="2">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S75" s="2">
+        <v>15</v>
+      </c>
+      <c r="T75" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="V75" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="2">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S76" s="2">
+        <v>15</v>
+      </c>
+      <c r="T76" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="2">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F77" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S77" s="2">
+        <v>15</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V77" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V78" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V79" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V80" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V81" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V82" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="10">
+        <v>5</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S83" s="10">
+        <v>5</v>
+      </c>
+      <c r="T83" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="U83" s="10">
+        <v>0.112</v>
+      </c>
+      <c r="V83" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="10">
+        <v>5</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S85" s="10">
+        <v>5</v>
+      </c>
+      <c r="T85" s="10">
+        <v>0</v>
+      </c>
+      <c r="U85" s="10">
+        <v>0</v>
+      </c>
+      <c r="V85" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="10">
+        <v>14</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R86" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S86" s="10">
+        <v>14</v>
+      </c>
+      <c r="T86" s="10">
+        <v>0</v>
+      </c>
+      <c r="U86" s="10">
+        <v>0</v>
+      </c>
+      <c r="V86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="10">
+        <v>15</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S87" s="10">
+        <v>15</v>
+      </c>
+      <c r="T87" s="10">
+        <v>0</v>
+      </c>
+      <c r="U87" s="10">
+        <v>0</v>
+      </c>
+      <c r="V87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="10">
+        <v>15</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S88" s="10">
+        <v>15</v>
+      </c>
+      <c r="T88" s="10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="U88" s="10">
+        <v>0.114</v>
+      </c>
+      <c r="V88" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="10">
+        <v>15</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F89" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S89" s="10">
+        <v>15</v>
+      </c>
+      <c r="T89" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="U89" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="V89" s="10">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="2">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S90" s="2">
+        <v>25</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="U90" s="2">
+        <v>1.145</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="2">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S91" s="2">
+        <v>25</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="2">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S92" s="2">
+        <v>25</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="2">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S93" s="2">
+        <v>25</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="2">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="F94" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S94" s="2">
+        <v>25</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="2">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S95" s="2">
+        <v>25</v>
+      </c>
+      <c r="T95" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="U95" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="V95" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="2">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F96" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S96" s="2">
+        <v>25</v>
+      </c>
+      <c r="T96" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="U96" s="2">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="2">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S97" s="2">
+        <v>25</v>
+      </c>
+      <c r="T97" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U97" s="2">
+        <v>1.206</v>
+      </c>
+      <c r="V97" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="2">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F98" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S98" s="2">
+        <v>25</v>
+      </c>
+      <c r="T98" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="U98" s="2">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="V98" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="2">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="F99" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S99" s="2">
+        <v>25</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="V99" s="2">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="2">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F100" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S100" s="2">
+        <v>25</v>
+      </c>
+      <c r="T100" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="2">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F101" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S101" s="2">
+        <v>25</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="V101" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="Q8:V8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Output/Quant_summary.xlsx
+++ b/Output/Quant_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Quantitative-Repro\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41B6512-6422-4C18-917C-D373CC490754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21984F05-1499-4EFD-B42E-CA23314E360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76E3938-7753-4F02-9E4E-7FE6E3A19829}"/>
   </bookViews>
   <sheets>
     <sheet name="WQ" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="127">
   <si>
     <t>Water quality</t>
   </si>
@@ -429,7 +429,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,9 +594,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,7 +610,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,20 +622,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2448,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520D136-D05F-41E6-8E0D-AC4F2D0DA4EE}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2522,22 +2518,22 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="Q8" s="15" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="Q8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5913,9 +5909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1A740-B833-4284-BD7A-24FD71732E32}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5990,22 +5984,22 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="Q8" s="15" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="Q8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9381,9 +9375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7376AE-8E78-42B1-9889-DBAA9CD7FE5C}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9404,24 +9396,24 @@
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="26" t="s">
+      <c r="V4" s="26"/>
+      <c r="W4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -9433,7 +9425,7 @@
       <c r="E5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -9448,25 +9440,25 @@
       <c r="J5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="27" t="s">
+      <c r="Z5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9474,7 +9466,7 @@
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>12</v>
       </c>
       <c r="C6" s="2">
@@ -9483,10 +9475,10 @@
       <c r="D6" s="2">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="19">
         <v>48</v>
       </c>
       <c r="G6" s="2">
@@ -9498,10 +9490,10 @@
       <c r="I6" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="28" t="s">
+      <c r="J6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>81</v>
       </c>
       <c r="W6" s="2">
@@ -9527,7 +9519,7 @@
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>20</v>
       </c>
       <c r="C7" s="2">
@@ -9536,10 +9528,10 @@
       <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="19">
         <v>48</v>
       </c>
       <c r="G7" s="2">
@@ -9551,10 +9543,10 @@
       <c r="I7" s="2">
         <v>0.42</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V7" s="28" t="s">
+      <c r="J7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>82</v>
       </c>
       <c r="W7" s="2">
@@ -9580,7 +9572,7 @@
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>30</v>
       </c>
       <c r="C8" s="2">
@@ -9589,10 +9581,10 @@
       <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="19">
         <v>48</v>
       </c>
       <c r="G8" s="2">
@@ -9604,10 +9596,10 @@
       <c r="I8" s="2">
         <v>0.15</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" s="28" t="s">
+      <c r="J8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="26" t="s">
         <v>83</v>
       </c>
       <c r="W8" s="2">
@@ -9633,7 +9625,7 @@
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>32</v>
       </c>
       <c r="C9" s="2">
@@ -9642,10 +9634,10 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="19">
         <v>48</v>
       </c>
       <c r="G9" s="2">
@@ -9657,7 +9649,7 @@
       <c r="I9" s="2">
         <v>0.08</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9665,7 +9657,7 @@
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>33</v>
       </c>
       <c r="C10" s="2">
@@ -9677,7 +9669,7 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>48</v>
       </c>
       <c r="G10" s="2">
@@ -9697,7 +9689,7 @@
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>39</v>
       </c>
       <c r="C11" s="2">
@@ -9706,10 +9698,10 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="19">
         <v>49</v>
       </c>
       <c r="G11" s="2">
@@ -9721,7 +9713,7 @@
       <c r="I11" s="2">
         <v>0.02</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9729,19 +9721,19 @@
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="19">
         <v>48</v>
       </c>
       <c r="G12" s="2">
@@ -9750,10 +9742,10 @@
       <c r="H12" s="2">
         <v>0.17</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9761,7 +9753,7 @@
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>34</v>
       </c>
       <c r="C13" s="2">
@@ -9773,7 +9765,7 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>51</v>
       </c>
       <c r="G13" s="2">
@@ -9793,7 +9785,7 @@
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>41</v>
       </c>
       <c r="C14" s="2">
@@ -9802,10 +9794,10 @@
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="19">
         <v>60</v>
       </c>
       <c r="G14" s="2">
@@ -9817,7 +9809,7 @@
       <c r="I14" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9825,7 +9817,7 @@
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>38</v>
       </c>
       <c r="C15" s="2">
@@ -9834,10 +9826,10 @@
       <c r="D15" s="2">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="E15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="19">
         <v>63</v>
       </c>
       <c r="G15" s="2">
@@ -9849,7 +9841,7 @@
       <c r="I15" s="2">
         <v>0.11</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9857,7 +9849,7 @@
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>25</v>
       </c>
       <c r="C16" s="2">
@@ -9869,7 +9861,7 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>59</v>
       </c>
       <c r="G16" s="2">
@@ -9889,7 +9881,7 @@
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>19</v>
       </c>
       <c r="C17" s="2">
@@ -9898,10 +9890,10 @@
       <c r="D17" s="2">
         <v>40</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="E17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="19">
         <v>63</v>
       </c>
       <c r="G17" s="2">
@@ -9913,20 +9905,20 @@
       <c r="I17" s="2">
         <v>0.63</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -9944,7 +9936,7 @@
       <c r="F20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -9979,10 +9971,10 @@
       <c r="E21" s="2">
         <v>27</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="19">
         <v>48</v>
       </c>
       <c r="H21" s="2">
@@ -9997,7 +9989,7 @@
       <c r="K21" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10020,7 +10012,7 @@
       <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>48</v>
       </c>
       <c r="H22" s="2">
@@ -10058,7 +10050,7 @@
       <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>48</v>
       </c>
       <c r="H23" s="2">
@@ -10093,10 +10085,10 @@
       <c r="E24" s="2">
         <v>4</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="19">
         <v>48</v>
       </c>
       <c r="H24" s="2">
@@ -10111,7 +10103,7 @@
       <c r="K24" s="2">
         <v>0.08</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10134,7 +10126,7 @@
       <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>48</v>
       </c>
       <c r="H25" s="2">
@@ -10157,7 +10149,7 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2">
@@ -10172,10 +10164,10 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>49</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I26" s="2">
@@ -10195,7 +10187,7 @@
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="2">
@@ -10204,16 +10196,16 @@
       <c r="D27" s="2">
         <v>9</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="20">
+      <c r="E27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="19">
         <v>48</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I27" s="2">
@@ -10222,10 +10214,10 @@
       <c r="J27" s="2">
         <v>0.19</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="16" t="s">
+      <c r="K27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10233,7 +10225,7 @@
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="2">
@@ -10248,10 +10240,10 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>51</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I28" s="2">
@@ -10271,7 +10263,7 @@
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="2">
@@ -10280,16 +10272,16 @@
       <c r="D29" s="2">
         <v>9</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="2">
         <v>6</v>
       </c>
-      <c r="G29" s="20">
-        <v>60</v>
-      </c>
-      <c r="H29" s="16" t="s">
+      <c r="G29" s="19">
+        <v>60</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I29" s="2">
@@ -10298,7 +10290,7 @@
       <c r="J29" s="2">
         <v>0.15</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="L29" s="2">
@@ -10309,7 +10301,7 @@
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="2">
@@ -10324,10 +10316,10 @@
       <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>63</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I30" s="2">
@@ -10362,7 +10354,7 @@
       <c r="F31" s="2">
         <v>7</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>59</v>
       </c>
       <c r="H31" s="2">
@@ -10400,7 +10392,7 @@
       <c r="F32" s="2">
         <v>11</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>63</v>
       </c>
       <c r="H32" s="2">
@@ -10423,7 +10415,7 @@
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -10441,7 +10433,7 @@
       <c r="G35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>62</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -10464,7 +10456,7 @@
       <c r="A36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="10">
@@ -10482,7 +10474,7 @@
       <c r="G36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="24">
         <v>12</v>
       </c>
       <c r="I36" s="10">
@@ -10505,7 +10497,7 @@
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="10">
@@ -10523,7 +10515,7 @@
       <c r="G37" s="10">
         <v>4</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <v>12</v>
       </c>
       <c r="I37" s="10">
@@ -10546,7 +10538,7 @@
       <c r="A38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -10564,7 +10556,7 @@
       <c r="G38" s="10">
         <v>4</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>12</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -10587,7 +10579,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -10605,7 +10597,7 @@
       <c r="G39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="24">
         <v>12</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -10628,7 +10620,7 @@
       <c r="A40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -10646,7 +10638,7 @@
       <c r="G40" s="10">
         <v>4</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="24">
         <v>12</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -10669,7 +10661,7 @@
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -10687,7 +10679,7 @@
       <c r="G41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="24">
         <v>9</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -10710,7 +10702,7 @@
       <c r="A42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -10728,7 +10720,7 @@
       <c r="G42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="24">
         <v>12</v>
       </c>
       <c r="I42" s="10" t="s">
@@ -10751,7 +10743,7 @@
       <c r="A43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -10769,7 +10761,7 @@
       <c r="G43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="24">
         <v>10</v>
       </c>
       <c r="I43" s="10" t="s">
@@ -10792,7 +10784,7 @@
       <c r="A44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -10810,7 +10802,7 @@
       <c r="G44" s="10">
         <v>6</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="24">
         <v>12</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -10833,7 +10825,7 @@
       <c r="A45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -10851,7 +10843,7 @@
       <c r="G45" s="10">
         <v>6</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="24">
         <v>12</v>
       </c>
       <c r="I45" s="10" t="s">
@@ -10874,7 +10866,7 @@
       <c r="A46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="10">
@@ -10892,7 +10884,7 @@
       <c r="G46" s="10">
         <v>6</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="24">
         <v>8</v>
       </c>
       <c r="I46" s="10">
@@ -10915,7 +10907,7 @@
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -10933,7 +10925,7 @@
       <c r="G47" s="10">
         <v>10</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="24">
         <v>12</v>
       </c>
       <c r="I47" s="10" t="s">
@@ -10974,7 +10966,7 @@
       <c r="G48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <v>10</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -11015,7 +11007,7 @@
       <c r="G49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>10</v>
       </c>
       <c r="I49" s="2">
@@ -11056,7 +11048,7 @@
       <c r="G50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>10</v>
       </c>
       <c r="I50" s="2">
@@ -11097,7 +11089,7 @@
       <c r="G51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="19">
         <v>10</v>
       </c>
       <c r="I51" s="2">
@@ -11138,7 +11130,7 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>10</v>
       </c>
       <c r="I52" s="2">
@@ -11179,7 +11171,7 @@
       <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>10</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -11220,7 +11212,7 @@
       <c r="G54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>10</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -11261,7 +11253,7 @@
       <c r="G55" s="2">
         <v>1</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>10</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -11302,7 +11294,7 @@
       <c r="G56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>10</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -11343,7 +11335,7 @@
       <c r="G57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="19">
         <v>10</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -11384,7 +11376,7 @@
       <c r="G58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>10</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -11425,7 +11417,7 @@
       <c r="G59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>10</v>
       </c>
       <c r="I59" s="2">
@@ -11448,7 +11440,7 @@
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="10">
@@ -11466,7 +11458,7 @@
       <c r="G60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="24">
         <v>7</v>
       </c>
       <c r="I60" s="10">
@@ -11489,7 +11481,7 @@
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="10">
@@ -11507,7 +11499,7 @@
       <c r="G61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="24">
         <v>7</v>
       </c>
       <c r="I61" s="10">
@@ -11530,7 +11522,7 @@
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -11548,7 +11540,7 @@
       <c r="G62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H62" s="24">
         <v>7</v>
       </c>
       <c r="I62" s="10" t="s">
@@ -11571,7 +11563,7 @@
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -11589,7 +11581,7 @@
       <c r="G63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="24">
         <v>7</v>
       </c>
       <c r="I63" s="10" t="s">
@@ -11612,7 +11604,7 @@
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -11630,7 +11622,7 @@
       <c r="G64" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H64" s="24">
         <v>7</v>
       </c>
       <c r="I64" s="10" t="s">
@@ -11653,7 +11645,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -11671,7 +11663,7 @@
       <c r="G65" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="24">
         <v>7</v>
       </c>
       <c r="I65" s="10" t="s">
@@ -11694,7 +11686,7 @@
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -11712,7 +11704,7 @@
       <c r="G66" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="24">
         <v>7</v>
       </c>
       <c r="I66" s="10" t="s">
@@ -11735,7 +11727,7 @@
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -11753,7 +11745,7 @@
       <c r="G67" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="24">
         <v>7</v>
       </c>
       <c r="I67" s="10" t="s">
@@ -11776,7 +11768,7 @@
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -11794,7 +11786,7 @@
       <c r="G68" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H68" s="24">
         <v>7</v>
       </c>
       <c r="I68" s="10" t="s">
@@ -11817,7 +11809,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -11835,7 +11827,7 @@
       <c r="G69" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H69" s="24">
         <v>7</v>
       </c>
       <c r="I69" s="10" t="s">
@@ -11858,7 +11850,7 @@
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -11876,7 +11868,7 @@
       <c r="G70" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="24">
         <v>7</v>
       </c>
       <c r="I70" s="10" t="s">
@@ -11899,7 +11891,7 @@
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -11917,7 +11909,7 @@
       <c r="G71" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="25">
+      <c r="H71" s="24">
         <v>7</v>
       </c>
       <c r="I71" s="10" t="s">
@@ -11958,7 +11950,7 @@
       <c r="G72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="19">
         <v>7</v>
       </c>
       <c r="I72" s="2">
@@ -11999,7 +11991,7 @@
       <c r="G73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="19">
         <v>7</v>
       </c>
       <c r="I73" s="2">
@@ -12040,7 +12032,7 @@
       <c r="G74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="19">
         <v>7</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -12081,7 +12073,7 @@
       <c r="G75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>7</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -12122,7 +12114,7 @@
       <c r="G76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="19">
         <v>7</v>
       </c>
       <c r="I76" s="2">
@@ -12163,7 +12155,7 @@
       <c r="G77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="19">
         <v>7</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -12204,7 +12196,7 @@
       <c r="G78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="19">
         <v>7</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -12245,7 +12237,7 @@
       <c r="G79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="19">
         <v>7</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -12286,7 +12278,7 @@
       <c r="G80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <v>7</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -12327,7 +12319,7 @@
       <c r="G81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>7</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -12368,7 +12360,7 @@
       <c r="G82" s="2">
         <v>1</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="19">
         <v>7</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -12409,7 +12401,7 @@
       <c r="G83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="19">
         <v>7</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -12432,7 +12424,7 @@
       <c r="A84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -12450,7 +12442,7 @@
       <c r="G84" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="25">
+      <c r="H84" s="24">
         <v>4</v>
       </c>
       <c r="I84" s="10" t="s">
@@ -12473,7 +12465,7 @@
       <c r="A85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -12491,7 +12483,7 @@
       <c r="G85" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="25">
+      <c r="H85" s="24">
         <v>5</v>
       </c>
       <c r="I85" s="10" t="s">
@@ -12514,7 +12506,7 @@
       <c r="A86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C86" s="10" t="s">
@@ -12532,7 +12524,7 @@
       <c r="G86" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="25">
+      <c r="H86" s="24">
         <v>12</v>
       </c>
       <c r="I86" s="10" t="s">
@@ -12555,7 +12547,7 @@
       <c r="A87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -12573,7 +12565,7 @@
       <c r="G87" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="25">
+      <c r="H87" s="24">
         <v>15</v>
       </c>
       <c r="I87" s="10" t="s">
@@ -12596,7 +12588,7 @@
       <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -12614,7 +12606,7 @@
       <c r="G88" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H88" s="25">
+      <c r="H88" s="24">
         <v>15</v>
       </c>
       <c r="I88" s="10" t="s">
@@ -12637,7 +12629,7 @@
       <c r="A89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="10">
@@ -12655,7 +12647,7 @@
       <c r="G89" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H89" s="24">
         <v>15</v>
       </c>
       <c r="I89" s="10">
@@ -12696,7 +12688,7 @@
       <c r="G90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="19">
         <v>12</v>
       </c>
       <c r="I90" s="2">
@@ -12737,7 +12729,7 @@
       <c r="G91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="19">
         <v>12</v>
       </c>
       <c r="I91" s="2">
@@ -12778,7 +12770,7 @@
       <c r="G92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="19">
         <v>12</v>
       </c>
       <c r="I92" s="2">
@@ -12819,7 +12811,7 @@
       <c r="G93" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="19">
         <v>12</v>
       </c>
       <c r="I93" s="2">
@@ -12860,7 +12852,7 @@
       <c r="G94" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="19">
         <v>12</v>
       </c>
       <c r="I94" s="2">
@@ -12901,7 +12893,7 @@
       <c r="G95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="19">
         <v>12</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -12942,7 +12934,7 @@
       <c r="G96" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="19">
         <v>12</v>
       </c>
       <c r="I96" s="2" t="s">
@@ -12983,7 +12975,7 @@
       <c r="G97" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="19">
         <v>12</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -13024,7 +13016,7 @@
       <c r="G98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="19">
         <v>12</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -13065,7 +13057,7 @@
       <c r="G99" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="19">
         <v>12</v>
       </c>
       <c r="I99" s="2" t="s">
@@ -13106,7 +13098,7 @@
       <c r="G100" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="19">
         <v>12</v>
       </c>
       <c r="I100" s="2" t="s">
@@ -13147,7 +13139,7 @@
       <c r="G101" s="2">
         <v>1</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="19">
         <v>12</v>
       </c>
       <c r="I101" s="2">
@@ -13176,9 +13168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4B2EF-7DD3-4D73-B2E6-72FF897F633A}">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H24"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13636,7 +13626,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>88</v>
       </c>
       <c r="S17" s="2" t="s">
@@ -13700,16 +13690,16 @@
       <c r="T19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="X19" s="16" t="s">
+      <c r="U19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -13717,13 +13707,13 @@
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <v>1.4816937999999999</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>0.13842180000000001</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="29">
         <v>1</v>
       </c>
       <c r="S20" s="10" t="s">
@@ -13749,13 +13739,13 @@
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <v>-2.6999304999999998</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>6.9353959999999999E-3</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="29">
         <v>0.104030946</v>
       </c>
       <c r="S21" s="10" t="s">
@@ -13781,13 +13771,13 @@
       <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <v>-3.9441754000000002</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>8.0075029999999997E-5</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>1.2011255000000001E-3</v>
       </c>
       <c r="S22" s="10" t="s">
@@ -13813,13 +13803,13 @@
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>-2.0682334</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>3.8618079999999999E-2</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="29">
         <v>0.57927115949999997</v>
       </c>
       <c r="S23" s="10" t="s">
@@ -13845,13 +13835,13 @@
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <v>-3.3270981000000002</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>8.7755470000000003E-4</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="29">
         <v>1.31633202E-2</v>
       </c>
       <c r="S24" s="10" t="s">
@@ -13866,10 +13856,10 @@
       <c r="V24" s="10">
         <v>0</v>
       </c>
-      <c r="W24" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="X24" s="32" t="s">
+      <c r="W24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -13877,13 +13867,13 @@
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <v>0.56891720000000001</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>0.56941240000000004</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <v>1</v>
       </c>
       <c r="S25" s="2" t="s">
@@ -13909,13 +13899,13 @@
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <v>-3.2439962000000002</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>1.178653E-3</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="29">
         <v>1.7679796099999999E-2</v>
       </c>
       <c r="S26" s="2" t="s">
@@ -13941,13 +13931,13 @@
       <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <v>-4.3924491000000003</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>1.120809E-5</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="29">
         <v>1.6812129999999999E-4</v>
       </c>
       <c r="S27" s="2" t="s">
@@ -13973,13 +13963,13 @@
       <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <v>-0.68109319999999995</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>0.49581249999999999</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <v>1</v>
       </c>
       <c r="S28" s="2" t="s">
@@ -14005,13 +13995,13 @@
       <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <v>-1.2147848000000001</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="29">
         <v>0.22444819999999999</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="29">
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
@@ -14020,16 +14010,16 @@
       <c r="T29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="X29" s="16" t="s">
+      <c r="U29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -14037,13 +14027,13 @@
       <c r="A30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <v>0.72139690000000001</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="29">
         <v>0.47066540000000001</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="29">
         <v>1</v>
       </c>
       <c r="S30" s="10" t="s">
@@ -14069,13 +14059,13 @@
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="29">
         <v>-0.80478139999999998</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>0.42094579999999998</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="29">
         <v>1</v>
       </c>
       <c r="S31" s="10" t="s">
@@ -14101,13 +14091,13 @@
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="29">
         <v>3.3623661</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="29">
         <v>7.7277610000000001E-4</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="29">
         <v>1.1591641E-2</v>
       </c>
       <c r="S32" s="10" t="s">
@@ -14133,13 +14123,13 @@
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="29">
         <v>2.7229584</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="29">
         <v>6.4700210000000003E-3</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="29">
         <v>9.7050312999999999E-2</v>
       </c>
       <c r="S33" s="10" t="s">
@@ -14165,13 +14155,13 @@
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="29">
         <v>3.8592005</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>1.1375860000000001E-4</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="29">
         <v>1.7063790000000001E-3</v>
       </c>
       <c r="E34" s="2"/>
@@ -14188,10 +14178,10 @@
       <c r="V34" s="10">
         <v>0</v>
       </c>
-      <c r="W34" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="X34" s="32" t="s">
+      <c r="W34" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15191,16 +15181,16 @@
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="32" t="s">
+      <c r="C86" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15211,16 +15201,16 @@
       <c r="B87" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F87" s="32" t="s">
+      <c r="C87" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15231,16 +15221,16 @@
       <c r="B88" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F88" s="32" t="s">
+      <c r="C88" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15251,16 +15241,16 @@
       <c r="B89" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F89" s="32" t="s">
+      <c r="C89" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15271,16 +15261,16 @@
       <c r="B90" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F90" s="32" t="s">
+      <c r="C90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15311,16 +15301,16 @@
       <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="32" t="s">
+      <c r="C92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15672,11 +15662,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB156DB-E908-4323-9153-E4841B53A4F7}">
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15950,7 +15938,7 @@
       <c r="F14" s="2">
         <v>1.07</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -15992,44 +15980,44 @@
       </c>
     </row>
     <row r="17" spans="19:24" x14ac:dyDescent="0.3">
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="29">
         <v>-10.618005999999999</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="29">
         <v>2.4575369999999999E-26</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V17" s="29">
         <v>7.3726120000000003E-26</v>
       </c>
     </row>
     <row r="18" spans="19:24" x14ac:dyDescent="0.3">
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="29">
         <v>-8.3565660000000008</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="29">
         <v>6.4570479999999994E-17</v>
       </c>
-      <c r="V18" s="31">
+      <c r="V18" s="29">
         <v>9.6855720000000004E-17</v>
       </c>
     </row>
     <row r="19" spans="19:24" x14ac:dyDescent="0.3">
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="29">
         <v>1.21719</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="29">
         <v>0.2235318</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="29">
         <v>0.2235318</v>
       </c>
     </row>
@@ -16253,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S33" s="2" t="s">
         <v>11</v>
       </c>
@@ -16273,7 +16261,7 @@
         <v>4.4109999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="S34" s="2" t="s">
@@ -16295,7 +16283,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="S35" s="2" t="s">
@@ -16317,10 +16305,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S36" s="2" t="s">
         <v>11</v>
       </c>
@@ -16340,63 +16325,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="37" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="10">
-        <v>12</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2.8460000000000001</v>
-      </c>
-      <c r="E38" s="10">
-        <v>3.597</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1.038</v>
-      </c>
+      <c r="U37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S38" s="10" t="s">
         <v>12</v>
       </c>
@@ -16416,25 +16365,7 @@
         <v>1.327</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="10">
-        <v>12</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="E39" s="10">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.51900000000000002</v>
-      </c>
+    <row r="39" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S39" s="10" t="s">
         <v>12</v>
       </c>
@@ -16454,25 +16385,7 @@
         <v>1.907</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="10">
-        <v>12</v>
-      </c>
-      <c r="D40" s="10">
-        <v>18.577999999999999</v>
-      </c>
-      <c r="E40" s="10">
-        <v>14.529</v>
-      </c>
-      <c r="F40" s="10">
-        <v>4.194</v>
-      </c>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S40" s="10" t="s">
         <v>12</v>
       </c>
@@ -16492,25 +16405,7 @@
         <v>1.946</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="10">
-        <v>12</v>
-      </c>
-      <c r="D41" s="10">
-        <v>53.741999999999997</v>
-      </c>
-      <c r="E41" s="10">
-        <v>11.361000000000001</v>
-      </c>
-      <c r="F41" s="10">
-        <v>3.28</v>
-      </c>
+    <row r="41" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S41" s="10" t="s">
         <v>12</v>
       </c>
@@ -16530,25 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="10">
-        <v>12</v>
-      </c>
-      <c r="D42" s="10">
-        <v>36.100999999999999</v>
-      </c>
-      <c r="E42" s="10">
-        <v>28.67</v>
-      </c>
-      <c r="F42" s="10">
-        <v>8.2759999999999998</v>
-      </c>
+    <row r="42" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S42" s="10" t="s">
         <v>12</v>
       </c>
@@ -16561,32 +16438,14 @@
       <c r="V42" s="10">
         <v>0</v>
       </c>
-      <c r="W42" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="X42" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="10">
-        <v>9</v>
-      </c>
-      <c r="D43" s="10">
-        <v>26.292999999999999</v>
-      </c>
-      <c r="E43" s="10">
-        <v>13.115</v>
-      </c>
-      <c r="F43" s="10">
-        <v>4.3719999999999999</v>
-      </c>
+      <c r="W42" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="X42" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S43" s="2" t="s">
         <v>13</v>
       </c>
@@ -16606,25 +16465,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="10">
-        <v>12</v>
-      </c>
-      <c r="D44" s="10">
-        <v>41.679000000000002</v>
-      </c>
-      <c r="E44" s="10">
-        <v>12.823</v>
-      </c>
-      <c r="F44" s="10">
-        <v>3.702</v>
-      </c>
+    <row r="44" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S44" s="2" t="s">
         <v>13</v>
       </c>
@@ -16644,25 +16485,7 @@
         <v>2.544</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="10">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10">
-        <v>29.663</v>
-      </c>
-      <c r="E45" s="10">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="F45" s="10">
-        <v>2.8330000000000002</v>
-      </c>
+    <row r="45" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S45" s="2" t="s">
         <v>13</v>
       </c>
@@ -16682,25 +16505,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="10">
-        <v>12</v>
-      </c>
-      <c r="D46" s="10">
-        <v>16.486000000000001</v>
-      </c>
-      <c r="E46" s="10">
-        <v>19.8</v>
-      </c>
-      <c r="F46" s="10">
-        <v>5.7160000000000002</v>
-      </c>
+    <row r="46" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S46" s="2" t="s">
         <v>13</v>
       </c>
@@ -16720,63 +16525,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="10">
-        <v>12</v>
-      </c>
-      <c r="D47" s="10">
-        <v>17.518999999999998</v>
-      </c>
-      <c r="E47" s="10">
-        <v>20.876999999999999</v>
-      </c>
-      <c r="F47" s="10">
-        <v>6.0270000000000001</v>
-      </c>
+    <row r="47" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="X47" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="10">
-        <v>8</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2.399</v>
-      </c>
-      <c r="E48" s="10">
-        <v>5.258</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1.859</v>
-      </c>
+      <c r="U47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X47" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="5:24" x14ac:dyDescent="0.3">
       <c r="S48" s="10" t="s">
         <v>15</v>
       </c>
@@ -16796,25 +16565,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="10">
-        <v>12</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
+    <row r="49" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S49" s="10" t="s">
         <v>15</v>
       </c>
@@ -16834,25 +16585,7 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="2">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="E50" s="2">
-        <v>4.8079999999999998</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1.52</v>
-      </c>
+    <row r="50" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S50" s="10" t="s">
         <v>15</v>
       </c>
@@ -16872,25 +16605,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E51" s="2">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.02</v>
-      </c>
+    <row r="51" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S51" s="10" t="s">
         <v>15</v>
       </c>
@@ -16910,25 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5.1050000000000004</v>
-      </c>
-      <c r="E52" s="2">
-        <v>12.714</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4.0199999999999996</v>
-      </c>
+    <row r="52" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S52" s="10" t="s">
         <v>15</v>
       </c>
@@ -16941,1151 +16638,11 @@
       <c r="V52" s="10">
         <v>0</v>
       </c>
-      <c r="W52" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="X52" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
-        <v>13.16</v>
-      </c>
-      <c r="E53" s="2">
-        <v>20.015999999999998</v>
-      </c>
-      <c r="F53" s="2">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="2">
-        <v>18.695</v>
-      </c>
-      <c r="E54" s="2">
-        <v>17.263000000000002</v>
-      </c>
-      <c r="F54" s="2">
-        <v>5.4589999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2">
-        <v>29.074999999999999</v>
-      </c>
-      <c r="E55" s="2">
-        <v>20.748000000000001</v>
-      </c>
-      <c r="F55" s="2">
-        <v>6.5609999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="2">
-        <v>10</v>
-      </c>
-      <c r="D56" s="2">
-        <v>35.795999999999999</v>
-      </c>
-      <c r="E56" s="2">
-        <v>11.688000000000001</v>
-      </c>
-      <c r="F56" s="2">
-        <v>3.6960000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="2">
-        <v>10</v>
-      </c>
-      <c r="D57" s="2">
-        <v>31.975000000000001</v>
-      </c>
-      <c r="E57" s="2">
-        <v>15.706</v>
-      </c>
-      <c r="F57" s="2">
-        <v>4.9669999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="2">
-        <v>10</v>
-      </c>
-      <c r="D58" s="2">
-        <v>34.761000000000003</v>
-      </c>
-      <c r="E58" s="2">
-        <v>12.507</v>
-      </c>
-      <c r="F58" s="2">
-        <v>3.9550000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2">
-        <v>22.256</v>
-      </c>
-      <c r="E59" s="2">
-        <v>12.654999999999999</v>
-      </c>
-      <c r="F59" s="2">
-        <v>4.0019999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="2">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.9689999999999999</v>
-      </c>
-      <c r="E60" s="2">
-        <v>5.8620000000000001</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.8540000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2">
-        <v>10</v>
-      </c>
-      <c r="D61" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E61" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F61" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="10">
-        <v>7</v>
-      </c>
-      <c r="D62" s="10">
-        <v>2.78</v>
-      </c>
-      <c r="E62" s="10">
-        <v>4.8419999999999996</v>
-      </c>
-      <c r="F62" s="10">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="10">
-        <v>7</v>
-      </c>
-      <c r="D63" s="10">
-        <v>12.2</v>
-      </c>
-      <c r="E63" s="10">
-        <v>8.77</v>
-      </c>
-      <c r="F63" s="10">
-        <v>3.3149999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="10">
-        <v>7</v>
-      </c>
-      <c r="D64" s="10">
-        <v>43.716000000000001</v>
-      </c>
-      <c r="E64" s="10">
-        <v>15.234999999999999</v>
-      </c>
-      <c r="F64" s="10">
-        <v>5.758</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="10">
-        <v>7</v>
-      </c>
-      <c r="D65" s="10">
-        <v>45.941000000000003</v>
-      </c>
-      <c r="E65" s="10">
-        <v>21.37</v>
-      </c>
-      <c r="F65" s="10">
-        <v>8.077</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="10">
-        <v>7</v>
-      </c>
-      <c r="D66" s="10">
-        <v>40.816000000000003</v>
-      </c>
-      <c r="E66" s="10">
-        <v>9.9540000000000006</v>
-      </c>
-      <c r="F66" s="10">
-        <v>3.762</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="10">
-        <v>7</v>
-      </c>
-      <c r="D67" s="10">
-        <v>35.073999999999998</v>
-      </c>
-      <c r="E67" s="10">
-        <v>17.573</v>
-      </c>
-      <c r="F67" s="10">
-        <v>6.6420000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="10">
-        <v>7</v>
-      </c>
-      <c r="D68" s="10">
-        <v>34.043999999999997</v>
-      </c>
-      <c r="E68" s="10">
-        <v>12.077999999999999</v>
-      </c>
-      <c r="F68" s="10">
-        <v>4.5650000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="10">
-        <v>7</v>
-      </c>
-      <c r="D69" s="10">
-        <v>45.133000000000003</v>
-      </c>
-      <c r="E69" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="F69" s="10">
-        <v>2.6829999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="10">
-        <v>7</v>
-      </c>
-      <c r="D70" s="10">
-        <v>26.384</v>
-      </c>
-      <c r="E70" s="10">
-        <v>15.374000000000001</v>
-      </c>
-      <c r="F70" s="10">
-        <v>5.8109999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="10">
-        <v>7</v>
-      </c>
-      <c r="D71" s="10">
-        <v>24.370999999999999</v>
-      </c>
-      <c r="E71" s="10">
-        <v>15.644</v>
-      </c>
-      <c r="F71" s="10">
-        <v>5.9130000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="10">
-        <v>7</v>
-      </c>
-      <c r="D72" s="10">
-        <v>13.724</v>
-      </c>
-      <c r="E72" s="10">
-        <v>18.466000000000001</v>
-      </c>
-      <c r="F72" s="10">
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="10">
-        <v>7</v>
-      </c>
-      <c r="D73" s="10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="F73" s="10">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="2">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="F74" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="2">
-        <v>7</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="2">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2">
-        <v>33.369999999999997</v>
-      </c>
-      <c r="E76" s="2">
-        <v>10.813000000000001</v>
-      </c>
-      <c r="F76" s="2">
-        <v>4.0869999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2">
-        <v>35.673999999999999</v>
-      </c>
-      <c r="E77" s="2">
-        <v>16.199000000000002</v>
-      </c>
-      <c r="F77" s="2">
-        <v>6.1230000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2">
-        <v>27.364000000000001</v>
-      </c>
-      <c r="E78" s="2">
-        <v>14.375999999999999</v>
-      </c>
-      <c r="F78" s="2">
-        <v>5.4340000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="2">
-        <v>7</v>
-      </c>
-      <c r="D79" s="2">
-        <v>26.646999999999998</v>
-      </c>
-      <c r="E79" s="2">
-        <v>11.433999999999999</v>
-      </c>
-      <c r="F79" s="2">
-        <v>4.3220000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="2">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2">
-        <v>20.413</v>
-      </c>
-      <c r="E80" s="2">
-        <v>13.065</v>
-      </c>
-      <c r="F80" s="2">
-        <v>4.9379999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="2">
-        <v>7</v>
-      </c>
-      <c r="D81" s="2">
-        <v>32.488999999999997</v>
-      </c>
-      <c r="E81" s="2">
-        <v>12.212</v>
-      </c>
-      <c r="F81" s="2">
-        <v>4.6159999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="2">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2">
-        <v>48.709000000000003</v>
-      </c>
-      <c r="E82" s="2">
-        <v>6.3970000000000002</v>
-      </c>
-      <c r="F82" s="2">
-        <v>2.4180000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="2">
-        <v>7</v>
-      </c>
-      <c r="D83" s="2">
-        <v>33.549999999999997</v>
-      </c>
-      <c r="E83" s="2">
-        <v>20.279</v>
-      </c>
-      <c r="F83" s="2">
-        <v>7.665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="2">
-        <v>7</v>
-      </c>
-      <c r="D84" s="2">
-        <v>28.016999999999999</v>
-      </c>
-      <c r="E84" s="2">
-        <v>22.172999999999998</v>
-      </c>
-      <c r="F84" s="2">
-        <v>8.3810000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="2">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2">
-        <v>6.7439999999999998</v>
-      </c>
-      <c r="E85" s="2">
-        <v>6.6269999999999998</v>
-      </c>
-      <c r="F85" s="2">
-        <v>2.5049999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F87" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F88" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="10">
-        <v>4</v>
-      </c>
-      <c r="D91" s="10">
-        <v>29.055</v>
-      </c>
-      <c r="E91" s="10">
-        <v>12.787000000000001</v>
-      </c>
-      <c r="F91" s="10">
-        <v>6.3940000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="10">
-        <v>5</v>
-      </c>
-      <c r="D93" s="10">
-        <v>43.79</v>
-      </c>
-      <c r="E93" s="10">
-        <v>11.843</v>
-      </c>
-      <c r="F93" s="10">
-        <v>5.2960000000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="10">
-        <v>12</v>
-      </c>
-      <c r="D94" s="10">
-        <v>34.354999999999997</v>
-      </c>
-      <c r="E94" s="10">
-        <v>12.124000000000001</v>
-      </c>
-      <c r="F94" s="10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="10">
-        <v>15</v>
-      </c>
-      <c r="D95" s="10">
-        <v>56.896999999999998</v>
-      </c>
-      <c r="E95" s="10">
-        <v>13.54</v>
-      </c>
-      <c r="F95" s="10">
-        <v>3.496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="10">
-        <v>15</v>
-      </c>
-      <c r="D96" s="10">
-        <v>23.664999999999999</v>
-      </c>
-      <c r="E96" s="10">
-        <v>24.431999999999999</v>
-      </c>
-      <c r="F96" s="10">
-        <v>6.3079999999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="10">
-        <v>15</v>
-      </c>
-      <c r="D97" s="10">
-        <v>5.0359999999999996</v>
-      </c>
-      <c r="E97" s="10">
-        <v>7.6029999999999998</v>
-      </c>
-      <c r="F97" s="10">
-        <v>1.9630000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="2">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E98" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F98" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="2">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="E99" s="2">
-        <v>2.6240000000000001</v>
-      </c>
-      <c r="F99" s="2">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="2">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2">
-        <v>23.832000000000001</v>
-      </c>
-      <c r="E100" s="2">
-        <v>29.372</v>
-      </c>
-      <c r="F100" s="2">
-        <v>8.4789999999999992</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="2">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2">
-        <v>36.877000000000002</v>
-      </c>
-      <c r="E101" s="2">
-        <v>17.216000000000001</v>
-      </c>
-      <c r="F101" s="2">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="2">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2">
-        <v>14.029</v>
-      </c>
-      <c r="E102" s="2">
-        <v>9.3859999999999992</v>
-      </c>
-      <c r="F102" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="2">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2">
-        <v>30.998000000000001</v>
-      </c>
-      <c r="E103" s="2">
-        <v>17.488</v>
-      </c>
-      <c r="F103" s="2">
-        <v>5.048</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="2">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2">
-        <v>27.298999999999999</v>
-      </c>
-      <c r="E104" s="2">
-        <v>13.717000000000001</v>
-      </c>
-      <c r="F104" s="2">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="2">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2">
-        <v>24.187999999999999</v>
-      </c>
-      <c r="E105" s="2">
-        <v>13.656000000000001</v>
-      </c>
-      <c r="F105" s="2">
-        <v>3.9420000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="2">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <v>25.181999999999999</v>
-      </c>
-      <c r="E106" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="F106" s="2">
-        <v>3.6949999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="2">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2">
-        <v>19.097999999999999</v>
-      </c>
-      <c r="E107" s="2">
-        <v>13.426</v>
-      </c>
-      <c r="F107" s="2">
-        <v>3.8759999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="2">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1.423</v>
-      </c>
-      <c r="E108" s="2">
-        <v>4.1219999999999999</v>
-      </c>
-      <c r="F108" s="2">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="2">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1.089</v>
-      </c>
-      <c r="E109" s="2">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1.0640000000000001</v>
+      <c r="W52" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="X52" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -18098,9 +16655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3D95A-425D-4DA5-8D9D-AF9CE12A5C7F}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18176,22 +16731,22 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="Q8" s="15" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="Q8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -20850,22 +19405,22 @@
       <c r="F83" s="10">
         <v>1.421</v>
       </c>
-      <c r="Q83" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R83" s="33" t="s">
+      <c r="Q83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S83" s="33">
+      <c r="S83" s="2">
         <v>25</v>
       </c>
-      <c r="T83" s="33">
+      <c r="T83" s="2">
         <v>5.7530000000000001</v>
       </c>
-      <c r="U83" s="33">
+      <c r="U83" s="2">
         <v>1.554</v>
       </c>
-      <c r="V83" s="33">
+      <c r="V83" s="2">
         <v>0.311</v>
       </c>
     </row>
@@ -20888,22 +19443,22 @@
       <c r="F84" s="10">
         <v>2.1360000000000001</v>
       </c>
-      <c r="Q84" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R84" s="33" t="s">
+      <c r="Q84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S84" s="33">
+      <c r="S84" s="2">
         <v>25</v>
       </c>
-      <c r="T84" s="33">
+      <c r="T84" s="2">
         <v>5.508</v>
       </c>
-      <c r="U84" s="33">
+      <c r="U84" s="2">
         <v>2.3519999999999999</v>
       </c>
-      <c r="V84" s="33">
+      <c r="V84" s="2">
         <v>0.47</v>
       </c>
     </row>
@@ -20926,22 +19481,22 @@
       <c r="F85" s="10">
         <v>1.9219999999999999</v>
       </c>
-      <c r="Q85" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R85" s="33" t="s">
+      <c r="Q85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S85" s="33">
+      <c r="S85" s="2">
         <v>25</v>
       </c>
-      <c r="T85" s="33">
+      <c r="T85" s="2">
         <v>5.2779999999999996</v>
       </c>
-      <c r="U85" s="33">
+      <c r="U85" s="2">
         <v>1.3520000000000001</v>
       </c>
-      <c r="V85" s="33">
+      <c r="V85" s="2">
         <v>0.27</v>
       </c>
     </row>
@@ -20964,22 +19519,22 @@
       <c r="F86" s="10">
         <v>1.732</v>
       </c>
-      <c r="Q86" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R86" s="33" t="s">
+      <c r="Q86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S86" s="33">
+      <c r="S86" s="2">
         <v>25</v>
       </c>
-      <c r="T86" s="33">
+      <c r="T86" s="2">
         <v>5.0490000000000004</v>
       </c>
-      <c r="U86" s="33">
+      <c r="U86" s="2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="V86" s="33">
+      <c r="V86" s="2">
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -21002,22 +19557,22 @@
       <c r="F87" s="10">
         <v>1.4930000000000001</v>
       </c>
-      <c r="Q87" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R87" s="33" t="s">
+      <c r="Q87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R87" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S87" s="33">
+      <c r="S87" s="2">
         <v>25</v>
       </c>
-      <c r="T87" s="33">
+      <c r="T87" s="2">
         <v>3.6379999999999999</v>
       </c>
-      <c r="U87" s="33">
+      <c r="U87" s="2">
         <v>0.76200000000000001</v>
       </c>
-      <c r="V87" s="33">
+      <c r="V87" s="2">
         <v>0.152</v>
       </c>
     </row>
@@ -21040,22 +19595,22 @@
       <c r="F88" s="10">
         <v>1.657</v>
       </c>
-      <c r="Q88" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R88" s="33" t="s">
+      <c r="Q88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R88" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S88" s="33">
+      <c r="S88" s="2">
         <v>25</v>
       </c>
-      <c r="T88" s="33">
+      <c r="T88" s="2">
         <v>3.8380000000000001</v>
       </c>
-      <c r="U88" s="33">
+      <c r="U88" s="2">
         <v>0.88300000000000001</v>
       </c>
-      <c r="V88" s="33">
+      <c r="V88" s="2">
         <v>0.17699999999999999</v>
       </c>
     </row>
@@ -21078,22 +19633,22 @@
       <c r="F89" s="10">
         <v>1.6060000000000001</v>
       </c>
-      <c r="Q89" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R89" s="33" t="s">
+      <c r="Q89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S89" s="33">
+      <c r="S89" s="2">
         <v>25</v>
       </c>
-      <c r="T89" s="33">
+      <c r="T89" s="2">
         <v>3.464</v>
       </c>
-      <c r="U89" s="33">
+      <c r="U89" s="2">
         <v>0.752</v>
       </c>
-      <c r="V89" s="33">
+      <c r="V89" s="2">
         <v>0.15</v>
       </c>
     </row>
